--- a/Algoritmide_omadused.xlsx
+++ b/Algoritmide_omadused.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>Algoritm</t>
   </si>
@@ -83,15 +83,6 @@
     <t>Jah</t>
   </si>
   <si>
-    <t>Jah?</t>
-  </si>
-  <si>
-    <t>Ei pea?</t>
-  </si>
-  <si>
-    <t>Jah (aga kui pole sidus, leiab minimum spanning forest'i)</t>
-  </si>
-  <si>
     <t>Tsüklilisus</t>
   </si>
   <si>
@@ -116,10 +107,10 @@
     <t>&lt;-</t>
   </si>
   <si>
-    <t>Ei pea? Võib ka no path vastuseks jääda?</t>
-  </si>
-  <si>
     <t>Ei (tegelikult const võivad, aga kergem on oletada, et ei)</t>
+  </si>
+  <si>
+    <t>Ei pea</t>
   </si>
 </sst>
 </file>
@@ -144,19 +135,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -394,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,15 +404,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -452,14 +428,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,43 +758,43 @@
         <v>14</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
+      <c r="B2" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>19</v>
+      <c r="B3" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -821,22 +803,22 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
+      <c r="B4" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -845,217 +827,217 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="26"/>
+      <c r="D10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
+      <c r="B11" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="26"/>
+      <c r="D11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="26"/>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algoritmide_omadused.xlsx
+++ b/Algoritmide_omadused.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiie\Bakatöö\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiie\Bakatöö\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -727,7 +727,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
